--- a/biology/Zoologie/Felimare_cantabrica/Felimare_cantabrica.xlsx
+++ b/biology/Zoologie/Felimare_cantabrica/Felimare_cantabrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris cantabrique
 Le Doris cantabrique, Felimare cantabrica, est un nudibranche de la famille des Chromodorididae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche mesure de 10 à 110 mm[4]. Son manteau bleu foncé est parcouru par une ligne médiane jaune débutant en avant des rhinophores. Ceux-ci sont pennées, bleu foncé avec une tache jaune sur l'arrière. Les branchies sont elles aussi bleu foncé, avec un « V » jaune sur la face externe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche mesure de 10 à 110 mm. Son manteau bleu foncé est parcouru par une ligne médiane jaune débutant en avant des rhinophores. Ceux-ci sont pennées, bleu foncé avec une tache jaune sur l'arrière. Les branchies sont elles aussi bleu foncé, avec un « V » jaune sur la face externe.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit de la surface à 30 m de profondeur dans le golfe de Gascogne, le golfe du Morbihan, la côte atlantique ibérique et marocaine, l'ouest de la mer Méditerranée, l'Adriatique et dans l'Atlantique-Est adjacent. Il se nourrit des éponges du genre Dysidea.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Cantabrica » vient de sa répartition géographique, dans la mer Cantabrique.
 </t>
@@ -605,7 +623,9 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doris tricolore, Felimare tricolor (Cantraine, 1835)
 Doris de Gascon, Felimare gasconi (Ortea, Valdés &amp; García-Gómez, 1996)
